--- a/spliced/falling/2023-03-25_17-58-58/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-58/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.185474908351898</v>
+        <v>-3.540287351608276</v>
       </c>
       <c r="B2" t="n">
-        <v>5.544018769264222</v>
+        <v>5.382533311843872</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.341128690540791</v>
+        <v>-1.780441856384277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.169438767433166</v>
+        <v>-3.185474908351898</v>
       </c>
       <c r="B3" t="n">
-        <v>5.001180601119994</v>
+        <v>5.544018769264222</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6735752552747722</v>
+        <v>-1.341128690540791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.514218628406524</v>
+        <v>-3.169438767433166</v>
       </c>
       <c r="B4" t="n">
-        <v>5.064400196075439</v>
+        <v>5.001180601119994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5307594910264006</v>
+        <v>-0.6735752552747722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.949312973022461</v>
+        <v>-3.514218628406524</v>
       </c>
       <c r="B5" t="n">
-        <v>3.677936935424804</v>
+        <v>5.064400196075439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8671627283096315</v>
+        <v>0.5307594910264006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.74082317352295</v>
+        <v>-3.949312973022461</v>
       </c>
       <c r="B6" t="n">
-        <v>2.939013087749481</v>
+        <v>3.677936935424804</v>
       </c>
       <c r="C6" t="n">
-        <v>1.662665629386903</v>
+        <v>0.8671627283096315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-6.156321334838866</v>
+        <v>-4.74082317352295</v>
       </c>
       <c r="B7" t="n">
-        <v>2.482692444324494</v>
+        <v>2.939013087749481</v>
       </c>
       <c r="C7" t="n">
-        <v>2.901540523767471</v>
+        <v>1.662665629386903</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.70512387752533</v>
+        <v>-6.156321334838866</v>
       </c>
       <c r="B8" t="n">
-        <v>1.984266856312751</v>
+        <v>2.482692444324494</v>
       </c>
       <c r="C8" t="n">
-        <v>2.305714881420135</v>
+        <v>2.901540523767471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.514288425445558</v>
+        <v>-6.70512387752533</v>
       </c>
       <c r="B9" t="n">
-        <v>2.538958132266995</v>
+        <v>1.984266856312751</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7396240234375031</v>
+        <v>2.305714881420135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.64799528121941</v>
+        <v>-6.514288425445558</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5907153248786794</v>
+        <v>2.538958132266995</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.010972028970702</v>
+        <v>0.7396240234375031</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25.54574513435358</v>
+        <v>13.64799528121941</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.183045053482042</v>
+        <v>-0.5907153248786794</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.100710201263412</v>
+        <v>-5.010972028970702</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.683456826210012</v>
+        <v>25.54574513435358</v>
       </c>
       <c r="B12" t="n">
-        <v>4.46893746256828</v>
+        <v>-2.183045053482042</v>
       </c>
       <c r="C12" t="n">
-        <v>1.391087603569029</v>
+        <v>-7.100710201263412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.132775115966798</v>
+        <v>-1.683456826210012</v>
       </c>
       <c r="B13" t="n">
-        <v>4.239795589447025</v>
+        <v>4.46893746256828</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7271292686462392</v>
+        <v>1.391087603569029</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.974032163619995</v>
+        <v>1.132775115966798</v>
       </c>
       <c r="B14" t="n">
-        <v>6.137257993221282</v>
+        <v>4.239795589447025</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4547893404960567</v>
+        <v>0.7271292686462392</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.989514970779418</v>
+        <v>1.974032163619995</v>
       </c>
       <c r="B15" t="n">
-        <v>6.169636392593385</v>
+        <v>6.137257993221282</v>
       </c>
       <c r="C15" t="n">
-        <v>2.127831518650056</v>
+        <v>0.4547893404960567</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.919293570518496</v>
+        <v>1.989514970779418</v>
       </c>
       <c r="B16" t="n">
-        <v>4.336295771598811</v>
+        <v>6.169636392593385</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.078460484743126</v>
+        <v>2.127831518650056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.384284400939942</v>
+        <v>2.919293570518496</v>
       </c>
       <c r="B17" t="n">
-        <v>5.661798715591432</v>
+        <v>4.336295771598811</v>
       </c>
       <c r="C17" t="n">
-        <v>3.016176247596746</v>
+        <v>-1.078460484743126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.664549851417542</v>
+        <v>3.384284400939942</v>
       </c>
       <c r="B18" t="n">
-        <v>6.045073473453522</v>
+        <v>5.661798715591432</v>
       </c>
       <c r="C18" t="n">
-        <v>1.692821365594864</v>
+        <v>3.016176247596746</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.458636522293091</v>
+        <v>1.664549851417542</v>
       </c>
       <c r="B19" t="n">
-        <v>6.004646182060242</v>
+        <v>6.045073473453522</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9704791456460963</v>
+        <v>1.692821365594864</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.448996758460998</v>
+        <v>1.458636522293091</v>
       </c>
       <c r="B20" t="n">
-        <v>5.705842137336731</v>
+        <v>6.004646182060242</v>
       </c>
       <c r="C20" t="n">
-        <v>1.135319881141186</v>
+        <v>0.9704791456460963</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.438675880432129</v>
+        <v>1.448996758460998</v>
       </c>
       <c r="B21" t="n">
-        <v>5.703988456726075</v>
+        <v>5.705842137336731</v>
       </c>
       <c r="C21" t="n">
-        <v>1.146768474578857</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.517132639884949</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.866671967506409</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.15747617483139</v>
+        <v>1.135319881141186</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-58-58/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-58/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.540287351608276</v>
+        <v>-3.130717563629151</v>
       </c>
       <c r="B2" t="n">
-        <v>5.382533311843872</v>
+        <v>5.486354422569275</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.780441856384277</v>
+        <v>-2.054217553138733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.185474908351898</v>
+        <v>-3.261763083934784</v>
       </c>
       <c r="B3" t="n">
-        <v>5.544018769264222</v>
+        <v>5.438373637199402</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.341128690540791</v>
+        <v>-2.230073320865632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.169438767433166</v>
+        <v>-3.289464282989502</v>
       </c>
       <c r="B4" t="n">
-        <v>5.001180601119994</v>
+        <v>5.444673538208008</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6735752552747722</v>
+        <v>-2.207874870300293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.514218628406524</v>
+        <v>-3.29152911901474</v>
       </c>
       <c r="B5" t="n">
-        <v>5.064400196075439</v>
+        <v>5.474263513088226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5307594910264006</v>
+        <v>-1.988579791784286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.949312973022461</v>
+        <v>-3.39021909236908</v>
       </c>
       <c r="B6" t="n">
-        <v>3.677936935424804</v>
+        <v>5.475549221038817</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8671627283096315</v>
+        <v>-1.85912013053894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.74082317352295</v>
+        <v>-3.51887332201004</v>
       </c>
       <c r="B7" t="n">
-        <v>2.939013087749481</v>
+        <v>5.510936594009399</v>
       </c>
       <c r="C7" t="n">
-        <v>1.662665629386903</v>
+        <v>-1.821529471874237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.156321334838866</v>
+        <v>-3.540287351608276</v>
       </c>
       <c r="B8" t="n">
-        <v>2.482692444324494</v>
+        <v>5.382533311843872</v>
       </c>
       <c r="C8" t="n">
-        <v>2.901540523767471</v>
+        <v>-1.780441856384277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.70512387752533</v>
+        <v>-3.185474908351898</v>
       </c>
       <c r="B9" t="n">
-        <v>1.984266856312751</v>
+        <v>5.544018769264222</v>
       </c>
       <c r="C9" t="n">
-        <v>2.305714881420135</v>
+        <v>-1.341128690540791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.514288425445558</v>
+        <v>-3.169438767433166</v>
       </c>
       <c r="B10" t="n">
-        <v>2.538958132266995</v>
+        <v>5.001180601119994</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7396240234375031</v>
+        <v>-0.6735752552747722</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13.64799528121941</v>
+        <v>-3.514218628406524</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5907153248786794</v>
+        <v>5.064400196075439</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.010972028970702</v>
+        <v>0.5307594910264006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>25.54574513435358</v>
+        <v>-3.949312973022461</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.183045053482042</v>
+        <v>3.677936935424804</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.100710201263412</v>
+        <v>0.8671627283096315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.683456826210012</v>
+        <v>-4.74082317352295</v>
       </c>
       <c r="B13" t="n">
-        <v>4.46893746256828</v>
+        <v>2.939013087749481</v>
       </c>
       <c r="C13" t="n">
-        <v>1.391087603569029</v>
+        <v>1.662665629386903</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.132775115966798</v>
+        <v>-6.156321334838866</v>
       </c>
       <c r="B14" t="n">
-        <v>4.239795589447025</v>
+        <v>2.482692444324494</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7271292686462392</v>
+        <v>2.901540523767471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.974032163619995</v>
+        <v>-6.70512387752533</v>
       </c>
       <c r="B15" t="n">
-        <v>6.137257993221282</v>
+        <v>1.984266856312751</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4547893404960567</v>
+        <v>2.305714881420135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.989514970779418</v>
+        <v>-6.514288425445558</v>
       </c>
       <c r="B16" t="n">
-        <v>6.169636392593385</v>
+        <v>2.538958132266995</v>
       </c>
       <c r="C16" t="n">
-        <v>2.127831518650056</v>
+        <v>0.7396240234375031</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.919293570518496</v>
+        <v>13.64799528121941</v>
       </c>
       <c r="B17" t="n">
-        <v>4.336295771598811</v>
+        <v>-0.5907153248786794</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.078460484743126</v>
+        <v>-5.010972028970702</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.384284400939942</v>
+        <v>25.54574513435358</v>
       </c>
       <c r="B18" t="n">
-        <v>5.661798715591432</v>
+        <v>-2.183045053482042</v>
       </c>
       <c r="C18" t="n">
-        <v>3.016176247596746</v>
+        <v>-7.100710201263412</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.664549851417542</v>
+        <v>-1.683456826210012</v>
       </c>
       <c r="B19" t="n">
-        <v>6.045073473453522</v>
+        <v>4.46893746256828</v>
       </c>
       <c r="C19" t="n">
-        <v>1.692821365594864</v>
+        <v>1.391087603569029</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.458636522293091</v>
+        <v>1.132775115966798</v>
       </c>
       <c r="B20" t="n">
-        <v>6.004646182060242</v>
+        <v>4.239795589447025</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9704791456460963</v>
+        <v>0.7271292686462392</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1.974032163619995</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.137257993221282</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4547893404960567</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.989514970779418</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.169636392593385</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.127831518650056</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.919293570518496</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.336295771598811</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.078460484743126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.384284400939942</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.661798715591432</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.016176247596746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.664549851417542</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.045073473453522</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.692821365594864</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.458636522293091</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6.004646182060242</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9704791456460963</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>1.448996758460998</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>5.705842137336731</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>1.135319881141186</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.438675880432129</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.703988456726075</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.146768474578857</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.517132639884949</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.866671967506409</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.15747617483139</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.545208883285523</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.865323352813721</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.205629134178161</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.573752522468567</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.771291553974152</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.240318953990936</v>
       </c>
     </row>
   </sheetData>
